--- a/CNN-Output/full cnn model_predictions.xlsx
+++ b/CNN-Output/full cnn model_predictions.xlsx
@@ -450,7 +450,7 @@
         <v>7555.2001953125</v>
       </c>
       <c r="B2" t="n">
-        <v>7291.20751953125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>44600</v>
       </c>
       <c r="B3" t="n">
-        <v>35182.8828125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>14955</v>
       </c>
       <c r="B4" t="n">
-        <v>11656.146484375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>10620</v>
       </c>
       <c r="B5" t="n">
-        <v>10123.2763671875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>8020</v>
       </c>
       <c r="B6" t="n">
-        <v>8018.08447265625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1469.300048828125</v>
       </c>
       <c r="B7" t="n">
-        <v>12676.0244140625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7870</v>
       </c>
       <c r="B8" t="n">
-        <v>8878.9091796875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>14000</v>
       </c>
       <c r="B9" t="n">
-        <v>27261.763671875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>6845.2001953125</v>
       </c>
       <c r="B10" t="n">
-        <v>6495.72314453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10120</v>
       </c>
       <c r="B11" t="n">
-        <v>12834.189453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>24400</v>
       </c>
       <c r="B12" t="n">
-        <v>23542.2265625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12617.7998046875</v>
       </c>
       <c r="B13" t="n">
-        <v>11757.70703125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>10894.91015625</v>
       </c>
       <c r="B14" t="n">
-        <v>8812.2158203125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>12650.7998046875</v>
       </c>
       <c r="B15" t="n">
-        <v>14487.1220703125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>12034</v>
       </c>
       <c r="B16" t="n">
-        <v>13790.4423828125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>50050</v>
       </c>
       <c r="B17" t="n">
-        <v>42588.06640625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>5000</v>
       </c>
       <c r="B18" t="n">
-        <v>3751.3994140625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>5520</v>
       </c>
       <c r="B19" t="n">
-        <v>5956.4619140625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>41600</v>
       </c>
       <c r="B20" t="n">
-        <v>35901.0625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>11950</v>
       </c>
       <c r="B21" t="n">
-        <v>10783.1201171875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>18490</v>
       </c>
       <c r="B22" t="n">
-        <v>12866.71875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>20590</v>
       </c>
       <c r="B23" t="n">
-        <v>12086.498046875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>30120</v>
       </c>
       <c r="B24" t="n">
-        <v>38995.71484375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>13582</v>
       </c>
       <c r="B25" t="n">
-        <v>13466.35546875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>11200</v>
       </c>
       <c r="B26" t="n">
-        <v>6154.748046875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>7700</v>
       </c>
       <c r="B27" t="n">
-        <v>8156.06005859375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>18600</v>
       </c>
       <c r="B28" t="n">
-        <v>17146.458984375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>7400</v>
       </c>
       <c r="B29" t="n">
-        <v>1307.999633789062</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>6540</v>
       </c>
       <c r="B30" t="n">
-        <v>6142.4580078125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>12930</v>
       </c>
       <c r="B31" t="n">
-        <v>12613.9970703125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>17080</v>
       </c>
       <c r="B32" t="n">
-        <v>20539.58203125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>7571.419921875</v>
       </c>
       <c r="B33" t="n">
-        <v>9372.09765625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>5000</v>
       </c>
       <c r="B34" t="n">
-        <v>4234.36376953125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>4943</v>
       </c>
       <c r="B35" t="n">
-        <v>7513.92626953125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>27210</v>
       </c>
       <c r="B36" t="n">
-        <v>9061.7578125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>69240</v>
       </c>
       <c r="B37" t="n">
-        <v>17396.775390625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>18900</v>
       </c>
       <c r="B38" t="n">
-        <v>17493.9765625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>7738</v>
       </c>
       <c r="B39" t="n">
-        <v>1608.034912109375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>32900</v>
       </c>
       <c r="B40" t="n">
-        <v>28867.451171875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>11090</v>
       </c>
       <c r="B41" t="n">
-        <v>7336.64892578125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>10894.91015625</v>
       </c>
       <c r="B42" t="n">
-        <v>11113.4765625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>11995.599609375</v>
       </c>
       <c r="B43" t="n">
-        <v>11864.2431640625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>730.5999755859375</v>
       </c>
       <c r="B44" t="n">
-        <v>7195.42724609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>8529</v>
       </c>
       <c r="B45" t="n">
-        <v>12555.3916015625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1740</v>
       </c>
       <c r="B46" t="n">
-        <v>-9382.9326171875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>7700</v>
       </c>
       <c r="B47" t="n">
-        <v>7032.85986328125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>30100</v>
       </c>
       <c r="B48" t="n">
-        <v>35265.90234375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>12200</v>
       </c>
       <c r="B49" t="n">
-        <v>5033.3642578125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>18900</v>
       </c>
       <c r="B50" t="n">
-        <v>18593.943359375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>11051</v>
       </c>
       <c r="B51" t="n">
-        <v>9172.859375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>3228.5400390625</v>
       </c>
       <c r="B52" t="n">
-        <v>2613.861083984375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>24000</v>
       </c>
       <c r="B53" t="n">
-        <v>17184.572265625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>5000</v>
       </c>
       <c r="B54" t="n">
-        <v>3503.336669921875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1277.400024414062</v>
       </c>
       <c r="B55" t="n">
-        <v>797.3721313476562</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1256</v>
       </c>
       <c r="B56" t="n">
-        <v>1962.475341796875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>34075</v>
       </c>
       <c r="B57" t="n">
-        <v>29042.025390625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>11090</v>
       </c>
       <c r="B58" t="n">
-        <v>12678.6025390625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>15000</v>
       </c>
       <c r="B59" t="n">
-        <v>26591.7578125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>6687.5</v>
       </c>
       <c r="B60" t="n">
-        <v>-85.53572845458984</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>2497.699951171875</v>
       </c>
       <c r="B61" t="n">
-        <v>3225.164306640625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>31565</v>
       </c>
       <c r="B62" t="n">
-        <v>38070.46875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>11600</v>
       </c>
       <c r="B63" t="n">
-        <v>10795.8515625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>10653</v>
       </c>
       <c r="B64" t="n">
-        <v>14974.0751953125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>12447</v>
       </c>
       <c r="B65" t="n">
-        <v>13002.1787109375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>21000</v>
       </c>
       <c r="B66" t="n">
-        <v>34108.59375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>22300</v>
       </c>
       <c r="B67" t="n">
-        <v>19661.576171875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>8070</v>
       </c>
       <c r="B68" t="n">
-        <v>3701.9453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>6900</v>
       </c>
       <c r="B69" t="n">
-        <v>5605.22509765625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>27670</v>
       </c>
       <c r="B70" t="n">
-        <v>13707.525390625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>11800</v>
       </c>
       <c r="B71" t="n">
-        <v>18347.09375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>11563.400390625</v>
       </c>
       <c r="B72" t="n">
-        <v>5210.7236328125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>3032.10009765625</v>
       </c>
       <c r="B73" t="n">
-        <v>3235.072265625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>24820</v>
       </c>
       <c r="B74" t="n">
-        <v>23018.072265625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>12034</v>
       </c>
       <c r="B75" t="n">
-        <v>13996.3193359375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>8610</v>
       </c>
       <c r="B76" t="n">
-        <v>16860.958984375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>9710</v>
       </c>
       <c r="B77" t="n">
-        <v>15813.7314453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1487.579956054688</v>
       </c>
       <c r="B78" t="n">
-        <v>5199.39501953125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>36500</v>
       </c>
       <c r="B79" t="n">
-        <v>48074.93359375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>59000</v>
       </c>
       <c r="B80" t="n">
-        <v>34040.80859375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>8610</v>
       </c>
       <c r="B81" t="n">
-        <v>14694.6533203125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1237.7900390625</v>
       </c>
       <c r="B82" t="n">
-        <v>4898.5224609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>5140</v>
       </c>
       <c r="B83" t="n">
-        <v>7704.82421875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>5555</v>
       </c>
       <c r="B84" t="n">
-        <v>7825.15087890625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>7400</v>
       </c>
       <c r="B85" t="n">
-        <v>6945.3427734375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>13080</v>
       </c>
       <c r="B86" t="n">
-        <v>14639.7861328125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>3000</v>
       </c>
       <c r="B87" t="n">
-        <v>7616.41552734375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>22520</v>
       </c>
       <c r="B88" t="n">
-        <v>10072.6513671875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>4741</v>
       </c>
       <c r="B89" t="n">
-        <v>3356.2939453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>10370</v>
       </c>
       <c r="B90" t="n">
-        <v>12468.666015625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>8557.599609375</v>
       </c>
       <c r="B91" t="n">
-        <v>11357.4267578125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>8419</v>
       </c>
       <c r="B92" t="n">
-        <v>8625.4326171875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>29550</v>
       </c>
       <c r="B93" t="n">
-        <v>25506.849609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>16700</v>
       </c>
       <c r="B94" t="n">
-        <v>12409.3994140625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>16197</v>
       </c>
       <c r="B95" t="n">
-        <v>19663.880859375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>2219</v>
       </c>
       <c r="B96" t="n">
-        <v>8070.37939453125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>4949</v>
       </c>
       <c r="B97" t="n">
-        <v>8188.67138671875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>6500</v>
       </c>
       <c r="B98" t="n">
-        <v>6807.9140625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>30360</v>
       </c>
       <c r="B99" t="n">
-        <v>27530.5546875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>14530</v>
       </c>
       <c r="B100" t="n">
-        <v>10788.2666015625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>21100</v>
       </c>
       <c r="B101" t="n">
-        <v>26277.158203125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>13806.400390625</v>
       </c>
       <c r="B102" t="n">
-        <v>4353.33740234375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>10923.099609375</v>
       </c>
       <c r="B103" t="n">
-        <v>14816.4736328125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1238</v>
       </c>
       <c r="B104" t="n">
-        <v>2456.643798828125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>2808.699951171875</v>
       </c>
       <c r="B105" t="n">
-        <v>9738.974609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>26930</v>
       </c>
       <c r="B106" t="n">
-        <v>28348.658203125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>6200</v>
       </c>
       <c r="B107" t="n">
-        <v>6328.25634765625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>23210</v>
       </c>
       <c r="B108" t="n">
-        <v>17203.162109375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>9620</v>
       </c>
       <c r="B109" t="n">
-        <v>16927.349609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>4100</v>
       </c>
       <c r="B110" t="n">
-        <v>3662.954345703125</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>29500</v>
       </c>
       <c r="B111" t="n">
-        <v>19327.8359375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>19790</v>
       </c>
       <c r="B112" t="n">
-        <v>17599.978515625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>11450</v>
       </c>
       <c r="B113" t="n">
-        <v>14315.0400390625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>15000</v>
       </c>
       <c r="B114" t="n">
-        <v>15436.130859375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>32400</v>
       </c>
       <c r="B115" t="n">
-        <v>15684.1728515625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>6300</v>
       </c>
       <c r="B116" t="n">
-        <v>4957.38037109375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>17350</v>
       </c>
       <c r="B117" t="n">
-        <v>24890.185546875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>6000</v>
       </c>
       <c r="B118" t="n">
-        <v>2587.416748046875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>3403.10009765625</v>
       </c>
       <c r="B119" t="n">
-        <v>3858.838623046875</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>60300</v>
       </c>
       <c r="B120" t="n">
-        <v>24082.56640625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>16925.19921875</v>
       </c>
       <c r="B121" t="n">
-        <v>30513.81640625</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>8300</v>
       </c>
       <c r="B122" t="n">
-        <v>13642.8349609375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>39460</v>
       </c>
       <c r="B123" t="n">
-        <v>39878.4375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>5205.60009765625</v>
       </c>
       <c r="B124" t="n">
-        <v>5793.04052734375</v>
+        <v>15824.5791015625</v>
       </c>
     </row>
   </sheetData>
